--- a/hub2.xlsx
+++ b/hub2.xlsx
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
